--- a/data/update_raw/labor_costs_productivity_table.xlsx
+++ b/data/update_raw/labor_costs_productivity_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finnschule/Dropbox/BrownPhD/UnemploymentNetwork/data/update_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268C6B62-A5EA-D94F-B499-7D41266C424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A0DD4-D887-BE4C-8348-90E2ED90D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{EA3BE054-9BAC-FD40-B8A1-B57CEFF4C23B}"/>
+    <workbookView xWindow="8260" yWindow="500" windowWidth="27240" windowHeight="16440" xr2:uid="{EA3BE054-9BAC-FD40-B8A1-B57CEFF4C23B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Tornqvist aggregate of hours by age, education, &amp; gender
 </t>
@@ -75,10 +74,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Output per hour worked
 </t>
@@ -135,10 +133,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Sectoral output per unit of combined K, L, E, M, S
 </t>
@@ -209,10 +206,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Output per hour worked
 </t>
@@ -371,10 +367,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Tornqvist aggregate of hours by age, education, &amp; gender
 </t>
@@ -401,10 +396,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Sectoral output per unit of combined K, L, E, M, S
 </t>
@@ -820,10 +814,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Tornqvist aggregate of hours by age, education, &amp; gender
 </t>
@@ -895,10 +888,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Sectoral output per unit of combined K, L, E, M, S
 </t>
@@ -925,10 +917,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">*  Output per hour worked
 </t>
@@ -940,7 +931,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
   <si>
     <t>NAICS Code</t>
   </si>
@@ -1353,6 +1344,132 @@
   </si>
   <si>
     <t>MPU0081631</t>
+  </si>
+  <si>
+    <t>MPU0011512</t>
+  </si>
+  <si>
+    <t>MPU0011611</t>
+  </si>
+  <si>
+    <t>Sectoral output, billions of current dollars</t>
+  </si>
+  <si>
+    <t>Real sectoral output</t>
+  </si>
+  <si>
+    <t>MPU0021512</t>
+  </si>
+  <si>
+    <t>MPU0021611</t>
+  </si>
+  <si>
+    <t>MPU0022512</t>
+  </si>
+  <si>
+    <t>MPU0022611</t>
+  </si>
+  <si>
+    <t>MPU0023512</t>
+  </si>
+  <si>
+    <t>MPU0023611</t>
+  </si>
+  <si>
+    <t>MPU9910512</t>
+  </si>
+  <si>
+    <t>MPU9910611</t>
+  </si>
+  <si>
+    <t>MPU9920512</t>
+  </si>
+  <si>
+    <t>MPU9920611</t>
+  </si>
+  <si>
+    <t>MPU0042512</t>
+  </si>
+  <si>
+    <t>MPU0042611</t>
+  </si>
+  <si>
+    <t>MPU0044512</t>
+  </si>
+  <si>
+    <t>MPU0044611</t>
+  </si>
+  <si>
+    <t>MPU0048512</t>
+  </si>
+  <si>
+    <t>MPU0048611</t>
+  </si>
+  <si>
+    <t>MPU0051512</t>
+  </si>
+  <si>
+    <t>MPU0051611</t>
+  </si>
+  <si>
+    <t>MPU0052512</t>
+  </si>
+  <si>
+    <t>MPU0052611</t>
+  </si>
+  <si>
+    <t>MPU0053512</t>
+  </si>
+  <si>
+    <t>MPU0053611</t>
+  </si>
+  <si>
+    <t>MPU0054512</t>
+  </si>
+  <si>
+    <t>MPU0054611</t>
+  </si>
+  <si>
+    <t>MPU0055512</t>
+  </si>
+  <si>
+    <t>MPU0055611</t>
+  </si>
+  <si>
+    <t>MPU0056512</t>
+  </si>
+  <si>
+    <t>MPU0056611</t>
+  </si>
+  <si>
+    <t>MPU0061512</t>
+  </si>
+  <si>
+    <t>MPU0061611</t>
+  </si>
+  <si>
+    <t>MPU0062512</t>
+  </si>
+  <si>
+    <t>MPU0062611</t>
+  </si>
+  <si>
+    <t>MPU0071512</t>
+  </si>
+  <si>
+    <t>MPU0071611</t>
+  </si>
+  <si>
+    <t>MPU0072512</t>
+  </si>
+  <si>
+    <t>MPU0072611</t>
+  </si>
+  <si>
+    <t>MPU0081512</t>
+  </si>
+  <si>
+    <t>MPU0081611</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA859E7-1710-0249-906E-0CADB3B7526E}">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11165,6 +11282,4646 @@
         <v>294.32499999999999</v>
       </c>
     </row>
+    <row r="82" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="4">
+        <v>76.162999999999997</v>
+      </c>
+      <c r="E82" s="4">
+        <v>73.078000000000003</v>
+      </c>
+      <c r="F82" s="4">
+        <v>76.745000000000005</v>
+      </c>
+      <c r="G82" s="4">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="H82" s="4">
+        <v>80.459000000000003</v>
+      </c>
+      <c r="I82" s="4">
+        <v>84.713999999999999</v>
+      </c>
+      <c r="J82" s="4">
+        <v>82.602999999999994</v>
+      </c>
+      <c r="K82" s="4">
+        <v>89.712999999999994</v>
+      </c>
+      <c r="L82" s="4">
+        <v>86.584000000000003</v>
+      </c>
+      <c r="M82" s="4">
+        <v>87.903999999999996</v>
+      </c>
+      <c r="N82" s="4">
+        <v>92.546999999999997</v>
+      </c>
+      <c r="O82" s="4">
+        <v>92.790999999999997</v>
+      </c>
+      <c r="P82" s="4">
+        <v>95.513000000000005</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>96.495000000000005</v>
+      </c>
+      <c r="R82" s="4">
+        <v>96.228999999999999</v>
+      </c>
+      <c r="S82" s="4">
+        <v>95.893000000000001</v>
+      </c>
+      <c r="T82" s="4">
+        <v>99.774000000000001</v>
+      </c>
+      <c r="U82" s="4">
+        <v>102.92</v>
+      </c>
+      <c r="V82" s="4">
+        <v>103.782</v>
+      </c>
+      <c r="W82" s="4">
+        <v>102.235</v>
+      </c>
+      <c r="X82" s="4">
+        <v>102.58799999999999</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>101.05</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>103.114</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>103.60299999999999</v>
+      </c>
+      <c r="AB82" s="4">
+        <v>102.423</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>109.03700000000001</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>108.00700000000001</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>109.015</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>115.14700000000001</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>114.651</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>112.76900000000001</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>110.218</v>
+      </c>
+      <c r="AK82" s="4">
+        <v>118.657</v>
+      </c>
+      <c r="AL82" s="4">
+        <v>112.17400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="4">
+        <v>149.01400000000001</v>
+      </c>
+      <c r="E83" s="4">
+        <v>154.06</v>
+      </c>
+      <c r="F83" s="4">
+        <v>166.97900000000001</v>
+      </c>
+      <c r="G83" s="4">
+        <v>172.96</v>
+      </c>
+      <c r="H83" s="4">
+        <v>167.83699999999999</v>
+      </c>
+      <c r="I83" s="4">
+        <v>177.584</v>
+      </c>
+      <c r="J83" s="4">
+        <v>181.739</v>
+      </c>
+      <c r="K83" s="4">
+        <v>193.16200000000001</v>
+      </c>
+      <c r="L83" s="4">
+        <v>188.803</v>
+      </c>
+      <c r="M83" s="4">
+        <v>207.04400000000001</v>
+      </c>
+      <c r="N83" s="4">
+        <v>209.018</v>
+      </c>
+      <c r="O83" s="4">
+        <v>202.35599999999999</v>
+      </c>
+      <c r="P83" s="4">
+        <v>204.28</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>208.624</v>
+      </c>
+      <c r="R83" s="4">
+        <v>214.245</v>
+      </c>
+      <c r="S83" s="4">
+        <v>198.416</v>
+      </c>
+      <c r="T83" s="4">
+        <v>224.74</v>
+      </c>
+      <c r="U83" s="4">
+        <v>253.63900000000001</v>
+      </c>
+      <c r="V83" s="4">
+        <v>255.357</v>
+      </c>
+      <c r="W83" s="4">
+        <v>247.63399999999999</v>
+      </c>
+      <c r="X83" s="4">
+        <v>285.68599999999998</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>309.39100000000002</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>277.39</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>300.24799999999999</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>354.13400000000001</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>360.96800000000002</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>400.846</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>393.25</v>
+      </c>
+      <c r="AF83" s="4">
+        <v>359.46499999999997</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>344.28</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>350.29300000000001</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>346.90699999999998</v>
+      </c>
+      <c r="AJ83" s="4">
+        <v>344.67500000000001</v>
+      </c>
+      <c r="AK83" s="4">
+        <v>381.71300000000002</v>
+      </c>
+      <c r="AL83" s="4">
+        <v>415.53300000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="4">
+        <v>72.772999999999996</v>
+      </c>
+      <c r="E84" s="4">
+        <v>75.317999999999998</v>
+      </c>
+      <c r="F84" s="4">
+        <v>74.486000000000004</v>
+      </c>
+      <c r="G84" s="4">
+        <v>76.542000000000002</v>
+      </c>
+      <c r="H84" s="4">
+        <v>75.73</v>
+      </c>
+      <c r="I84" s="4">
+        <v>73.856999999999999</v>
+      </c>
+      <c r="J84" s="4">
+        <v>72.986000000000004</v>
+      </c>
+      <c r="K84" s="4">
+        <v>74.382999999999996</v>
+      </c>
+      <c r="L84" s="4">
+        <v>73.631</v>
+      </c>
+      <c r="M84" s="4">
+        <v>74.628</v>
+      </c>
+      <c r="N84" s="4">
+        <v>77.938000000000002</v>
+      </c>
+      <c r="O84" s="4">
+        <v>78.747</v>
+      </c>
+      <c r="P84" s="4">
+        <v>77.066999999999993</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>75.759</v>
+      </c>
+      <c r="R84" s="4">
+        <v>79.05</v>
+      </c>
+      <c r="S84" s="4">
+        <v>75.691000000000003</v>
+      </c>
+      <c r="T84" s="4">
+        <v>73.698999999999998</v>
+      </c>
+      <c r="U84" s="4">
+        <v>75.210999999999999</v>
+      </c>
+      <c r="V84" s="4">
+        <v>72.906000000000006</v>
+      </c>
+      <c r="W84" s="4">
+        <v>74.884</v>
+      </c>
+      <c r="X84" s="4">
+        <v>81.641999999999996</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>83.42</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>79.459000000000003</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>81.381</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>88.57</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>109.989</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>124.9</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>116.628</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>99.408000000000001</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>109.46299999999999</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>124.48399999999999</v>
+      </c>
+      <c r="AJ84" s="4">
+        <v>134.85</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>112.35</v>
+      </c>
+      <c r="AL84" s="4">
+        <v>112.498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="4">
+        <v>109.877</v>
+      </c>
+      <c r="E85" s="4">
+        <v>107.733</v>
+      </c>
+      <c r="F85" s="4">
+        <v>115.01600000000001</v>
+      </c>
+      <c r="G85" s="4">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="H85" s="4">
+        <v>117.46899999999999</v>
+      </c>
+      <c r="I85" s="4">
+        <v>114.17100000000001</v>
+      </c>
+      <c r="J85" s="4">
+        <v>113.29</v>
+      </c>
+      <c r="K85" s="4">
+        <v>110.801</v>
+      </c>
+      <c r="L85" s="4">
+        <v>109.38200000000001</v>
+      </c>
+      <c r="M85" s="4">
+        <v>128.76400000000001</v>
+      </c>
+      <c r="N85" s="4">
+        <v>134.39099999999999</v>
+      </c>
+      <c r="O85" s="4">
+        <v>115.71299999999999</v>
+      </c>
+      <c r="P85" s="4">
+        <v>124.687</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>170.48699999999999</v>
+      </c>
+      <c r="R85" s="4">
+        <v>179.24799999999999</v>
+      </c>
+      <c r="S85" s="4">
+        <v>154.95099999999999</v>
+      </c>
+      <c r="T85" s="4">
+        <v>194.19300000000001</v>
+      </c>
+      <c r="U85" s="4">
+        <v>229.869</v>
+      </c>
+      <c r="V85" s="4">
+        <v>289.74299999999999</v>
+      </c>
+      <c r="W85" s="4">
+        <v>315.45499999999998</v>
+      </c>
+      <c r="X85" s="4">
+        <v>357.60199999999998</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>447.375</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>291.89400000000001</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>351.80200000000002</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>422.44099999999997</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>449.81900000000002</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>519.38499999999999</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>583.63800000000003</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>374.17200000000003</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>295.34399999999999</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>375.005</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>479.99</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>481.60700000000003</v>
+      </c>
+      <c r="AK85" s="4">
+        <v>322.59399999999999</v>
+      </c>
+      <c r="AL85" s="4">
+        <v>487.31299999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="4">
+        <v>68.403000000000006</v>
+      </c>
+      <c r="E86" s="4">
+        <v>71.962000000000003</v>
+      </c>
+      <c r="F86" s="4">
+        <v>74.191000000000003</v>
+      </c>
+      <c r="G86" s="4">
+        <v>74.573999999999998</v>
+      </c>
+      <c r="H86" s="4">
+        <v>76.393000000000001</v>
+      </c>
+      <c r="I86" s="4">
+        <v>76.852000000000004</v>
+      </c>
+      <c r="J86" s="4">
+        <v>83.768000000000001</v>
+      </c>
+      <c r="K86" s="4">
+        <v>89.046999999999997</v>
+      </c>
+      <c r="L86" s="4">
+        <v>95.573999999999998</v>
+      </c>
+      <c r="M86" s="4">
+        <v>102.39400000000001</v>
+      </c>
+      <c r="N86" s="4">
+        <v>107.58799999999999</v>
+      </c>
+      <c r="O86" s="4">
+        <v>107.11199999999999</v>
+      </c>
+      <c r="P86" s="4">
+        <v>106.217</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>107.735</v>
+      </c>
+      <c r="R86" s="4">
+        <v>104.889</v>
+      </c>
+      <c r="S86" s="4">
+        <v>100.241</v>
+      </c>
+      <c r="T86" s="4">
+        <v>98.253</v>
+      </c>
+      <c r="U86" s="4">
+        <v>99.224000000000004</v>
+      </c>
+      <c r="V86" s="4">
+        <v>103.264</v>
+      </c>
+      <c r="W86" s="4">
+        <v>103.505</v>
+      </c>
+      <c r="X86" s="4">
+        <v>106.30800000000001</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>106.104</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>103.002</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>105.63200000000001</v>
+      </c>
+      <c r="AB86" s="4">
+        <v>103.127</v>
+      </c>
+      <c r="AC86" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>101.045</v>
+      </c>
+      <c r="AE86" s="4">
+        <v>102.98699999999999</v>
+      </c>
+      <c r="AF86" s="4">
+        <v>103.494</v>
+      </c>
+      <c r="AG86" s="4">
+        <v>103.75700000000001</v>
+      </c>
+      <c r="AH86" s="4">
+        <v>102.73399999999999</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>108.33199999999999</v>
+      </c>
+      <c r="AJ86" s="4">
+        <v>107.11799999999999</v>
+      </c>
+      <c r="AK86" s="4">
+        <v>104.131</v>
+      </c>
+      <c r="AL86" s="4">
+        <v>105.783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>22</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="4">
+        <v>217.709</v>
+      </c>
+      <c r="E87" s="4">
+        <v>227.56399999999999</v>
+      </c>
+      <c r="F87" s="4">
+        <v>238.983</v>
+      </c>
+      <c r="G87" s="4">
+        <v>244.601</v>
+      </c>
+      <c r="H87" s="4">
+        <v>253.131</v>
+      </c>
+      <c r="I87" s="4">
+        <v>258.76100000000002</v>
+      </c>
+      <c r="J87" s="4">
+        <v>289.91699999999997</v>
+      </c>
+      <c r="K87" s="4">
+        <v>308.21499999999997</v>
+      </c>
+      <c r="L87" s="4">
+        <v>322.185</v>
+      </c>
+      <c r="M87" s="4">
+        <v>357.60599999999999</v>
+      </c>
+      <c r="N87" s="4">
+        <v>385.06</v>
+      </c>
+      <c r="O87" s="4">
+        <v>366.82400000000001</v>
+      </c>
+      <c r="P87" s="4">
+        <v>357.63600000000002</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>395.459</v>
+      </c>
+      <c r="R87" s="4">
+        <v>422.76100000000002</v>
+      </c>
+      <c r="S87" s="4">
+        <v>365.88900000000001</v>
+      </c>
+      <c r="T87" s="4">
+        <v>394.88900000000001</v>
+      </c>
+      <c r="U87" s="4">
+        <v>415.41199999999998</v>
+      </c>
+      <c r="V87" s="4">
+        <v>484.95499999999998</v>
+      </c>
+      <c r="W87" s="4">
+        <v>515.178</v>
+      </c>
+      <c r="X87" s="4">
+        <v>534.78499999999997</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>580.93600000000004</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>517.37300000000005</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>527.18499999999995</v>
+      </c>
+      <c r="AB87" s="4">
+        <v>513.36900000000003</v>
+      </c>
+      <c r="AC87" s="4">
+        <v>481.80799999999999</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>506.81099999999998</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>546.07500000000005</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>522.83600000000001</v>
+      </c>
+      <c r="AG87" s="4">
+        <v>510.202</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>526.904</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>553.96</v>
+      </c>
+      <c r="AJ87" s="4">
+        <v>541.048</v>
+      </c>
+      <c r="AK87" s="4">
+        <v>517.18100000000004</v>
+      </c>
+      <c r="AL87" s="4">
+        <v>591.31700000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="4">
+        <v>108.283</v>
+      </c>
+      <c r="E88" s="4">
+        <v>107.31699999999999</v>
+      </c>
+      <c r="F88" s="4">
+        <v>105.985</v>
+      </c>
+      <c r="G88" s="4">
+        <v>103.783</v>
+      </c>
+      <c r="H88" s="4">
+        <v>94.897000000000006</v>
+      </c>
+      <c r="I88" s="4">
+        <v>98.203000000000003</v>
+      </c>
+      <c r="J88" s="4">
+        <v>100.58199999999999</v>
+      </c>
+      <c r="K88" s="4">
+        <v>104.48099999999999</v>
+      </c>
+      <c r="L88" s="4">
+        <v>104.991</v>
+      </c>
+      <c r="M88" s="4">
+        <v>111.753</v>
+      </c>
+      <c r="N88" s="4">
+        <v>115.04900000000001</v>
+      </c>
+      <c r="O88" s="4">
+        <v>122.628</v>
+      </c>
+      <c r="P88" s="4">
+        <v>127.60899999999999</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>132.869</v>
+      </c>
+      <c r="R88" s="4">
+        <v>133.74799999999999</v>
+      </c>
+      <c r="S88" s="4">
+        <v>132.03899999999999</v>
+      </c>
+      <c r="T88" s="4">
+        <v>136.53399999999999</v>
+      </c>
+      <c r="U88" s="4">
+        <v>142.09100000000001</v>
+      </c>
+      <c r="V88" s="4">
+        <v>145.80699999999999</v>
+      </c>
+      <c r="W88" s="4">
+        <v>142.524</v>
+      </c>
+      <c r="X88" s="4">
+        <v>134.88999999999999</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>124.794</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>108.298</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>100.117</v>
+      </c>
+      <c r="AB88" s="4">
+        <v>97.465999999999994</v>
+      </c>
+      <c r="AC88" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD88" s="4">
+        <v>104.68300000000001</v>
+      </c>
+      <c r="AE88" s="4">
+        <v>110.09</v>
+      </c>
+      <c r="AF88" s="4">
+        <v>119.119</v>
+      </c>
+      <c r="AG88" s="4">
+        <v>126.181</v>
+      </c>
+      <c r="AH88" s="4">
+        <v>128.255</v>
+      </c>
+      <c r="AI88" s="4">
+        <v>129.13200000000001</v>
+      </c>
+      <c r="AJ88" s="4">
+        <v>130.43799999999999</v>
+      </c>
+      <c r="AK88" s="4">
+        <v>132.77699999999999</v>
+      </c>
+      <c r="AL88" s="4">
+        <v>134.05600000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="4">
+        <v>492.76499999999999</v>
+      </c>
+      <c r="E89" s="4">
+        <v>507.92500000000001</v>
+      </c>
+      <c r="F89" s="4">
+        <v>522.71199999999999</v>
+      </c>
+      <c r="G89" s="4">
+        <v>529.09699999999998</v>
+      </c>
+      <c r="H89" s="4">
+        <v>489.81400000000002</v>
+      </c>
+      <c r="I89" s="4">
+        <v>513.83100000000002</v>
+      </c>
+      <c r="J89" s="4">
+        <v>543.9</v>
+      </c>
+      <c r="K89" s="4">
+        <v>585.97400000000005</v>
+      </c>
+      <c r="L89" s="4">
+        <v>611.83600000000001</v>
+      </c>
+      <c r="M89" s="4">
+        <v>664.61199999999997</v>
+      </c>
+      <c r="N89" s="4">
+        <v>706.59400000000005</v>
+      </c>
+      <c r="O89" s="4">
+        <v>776.83799999999997</v>
+      </c>
+      <c r="P89" s="4">
+        <v>838.72400000000005</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>910.80899999999997</v>
+      </c>
+      <c r="R89" s="4">
+        <v>953.70500000000004</v>
+      </c>
+      <c r="S89" s="4">
+        <v>966.37699999999995</v>
+      </c>
+      <c r="T89" s="4">
+        <v>1036.0920000000001</v>
+      </c>
+      <c r="U89" s="4">
+        <v>1154.019</v>
+      </c>
+      <c r="V89" s="4">
+        <v>1282.5740000000001</v>
+      </c>
+      <c r="W89" s="4">
+        <v>1349.046</v>
+      </c>
+      <c r="X89" s="4">
+        <v>1334.8389999999999</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>1272.021</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>1095.768</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>1013.456</v>
+      </c>
+      <c r="AB89" s="4">
+        <v>1017.1849999999999</v>
+      </c>
+      <c r="AC89" s="4">
+        <v>1071.0160000000001</v>
+      </c>
+      <c r="AD89" s="4">
+        <v>1151.7950000000001</v>
+      </c>
+      <c r="AE89" s="4">
+        <v>1254.4359999999999</v>
+      </c>
+      <c r="AF89" s="4">
+        <v>1381.367</v>
+      </c>
+      <c r="AG89" s="4">
+        <v>1490.097</v>
+      </c>
+      <c r="AH89" s="4">
+        <v>1564.979</v>
+      </c>
+      <c r="AI89" s="4">
+        <v>1642.41</v>
+      </c>
+      <c r="AJ89" s="4">
+        <v>1716.941</v>
+      </c>
+      <c r="AK89" s="4">
+        <v>1854.6379999999999</v>
+      </c>
+      <c r="AL89" s="4">
+        <v>1992.518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="4">
+        <v>83.54</v>
+      </c>
+      <c r="E90" s="4">
+        <v>85.754999999999995</v>
+      </c>
+      <c r="F90" s="4">
+        <v>86.938000000000002</v>
+      </c>
+      <c r="G90" s="4">
+        <v>87.739000000000004</v>
+      </c>
+      <c r="H90" s="4">
+        <v>87.769000000000005</v>
+      </c>
+      <c r="I90" s="4">
+        <v>90.286000000000001</v>
+      </c>
+      <c r="J90" s="4">
+        <v>92.343999999999994</v>
+      </c>
+      <c r="K90" s="4">
+        <v>94.887</v>
+      </c>
+      <c r="L90" s="4">
+        <v>95.837000000000003</v>
+      </c>
+      <c r="M90" s="4">
+        <v>96.108999999999995</v>
+      </c>
+      <c r="N90" s="4">
+        <v>99.753</v>
+      </c>
+      <c r="O90" s="4">
+        <v>101.04900000000001</v>
+      </c>
+      <c r="P90" s="4">
+        <v>101.931</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>102.666</v>
+      </c>
+      <c r="R90" s="4">
+        <v>99.113</v>
+      </c>
+      <c r="S90" s="4">
+        <v>100.592</v>
+      </c>
+      <c r="T90" s="4">
+        <v>101.005</v>
+      </c>
+      <c r="U90" s="4">
+        <v>102.80200000000001</v>
+      </c>
+      <c r="V90" s="4">
+        <v>105.44199999999999</v>
+      </c>
+      <c r="W90" s="4">
+        <v>105.518</v>
+      </c>
+      <c r="X90" s="4">
+        <v>107.166</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>102.14400000000001</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>95.352999999999994</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>99.221999999999994</v>
+      </c>
+      <c r="AB90" s="4">
+        <v>99.78</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>101.761</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>102.122</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>102.595</v>
+      </c>
+      <c r="AG90" s="4">
+        <v>103.824</v>
+      </c>
+      <c r="AH90" s="4">
+        <v>102.925</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>104.16800000000001</v>
+      </c>
+      <c r="AJ90" s="4">
+        <v>103.33</v>
+      </c>
+      <c r="AK90" s="4">
+        <v>98.155000000000001</v>
+      </c>
+      <c r="AL90" s="4">
+        <v>102.621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="4">
+        <v>872.22</v>
+      </c>
+      <c r="E91" s="4">
+        <v>940.25</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1006.5650000000001</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1058.2929999999999</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1053.577</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1082.7750000000001</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1106.9670000000001</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1150.6279999999999</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1226.3399999999999</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1260.99</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1308.415</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1294.28</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1337.8320000000001</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>1440.319</v>
+      </c>
+      <c r="R91" s="4">
+        <v>1403.143</v>
+      </c>
+      <c r="S91" s="4">
+        <v>1411.356</v>
+      </c>
+      <c r="T91" s="4">
+        <v>1477.2750000000001</v>
+      </c>
+      <c r="U91" s="4">
+        <v>1617.5250000000001</v>
+      </c>
+      <c r="V91" s="4">
+        <v>1842.884</v>
+      </c>
+      <c r="W91" s="4">
+        <v>1951.136</v>
+      </c>
+      <c r="X91" s="4">
+        <v>2106.598</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>2232.8780000000002</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>1862.7760000000001</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>2088.6170000000002</v>
+      </c>
+      <c r="AB91" s="4">
+        <v>2386.6819999999998</v>
+      </c>
+      <c r="AC91" s="4">
+        <v>2446.2510000000002</v>
+      </c>
+      <c r="AD91" s="4">
+        <v>2481.9270000000001</v>
+      </c>
+      <c r="AE91" s="4">
+        <v>2443.9540000000002</v>
+      </c>
+      <c r="AF91" s="4">
+        <v>2178.3760000000002</v>
+      </c>
+      <c r="AG91" s="4">
+        <v>2122.393</v>
+      </c>
+      <c r="AH91" s="4">
+        <v>2223.6610000000001</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>2383.6080000000002</v>
+      </c>
+      <c r="AJ91" s="4">
+        <v>2325.3150000000001</v>
+      </c>
+      <c r="AK91" s="4">
+        <v>2087.6379999999999</v>
+      </c>
+      <c r="AL91" s="4">
+        <v>2551.0940000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="4">
+        <v>55.267000000000003</v>
+      </c>
+      <c r="E92" s="4">
+        <v>58.277000000000001</v>
+      </c>
+      <c r="F92" s="4">
+        <v>58.875999999999998</v>
+      </c>
+      <c r="G92" s="4">
+        <v>58.402000000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>56.405999999999999</v>
+      </c>
+      <c r="I92" s="4">
+        <v>59.293999999999997</v>
+      </c>
+      <c r="J92" s="4">
+        <v>62.247</v>
+      </c>
+      <c r="K92" s="4">
+        <v>67.316999999999993</v>
+      </c>
+      <c r="L92" s="4">
+        <v>72.143000000000001</v>
+      </c>
+      <c r="M92" s="4">
+        <v>76.947999999999993</v>
+      </c>
+      <c r="N92" s="4">
+        <v>84.28</v>
+      </c>
+      <c r="O92" s="4">
+        <v>90.65</v>
+      </c>
+      <c r="P92" s="4">
+        <v>96.343000000000004</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>99.957999999999998</v>
+      </c>
+      <c r="R92" s="4">
+        <v>93.968000000000004</v>
+      </c>
+      <c r="S92" s="4">
+        <v>93.552999999999997</v>
+      </c>
+      <c r="T92" s="4">
+        <v>95.233999999999995</v>
+      </c>
+      <c r="U92" s="4">
+        <v>97.54</v>
+      </c>
+      <c r="V92" s="4">
+        <v>102.309</v>
+      </c>
+      <c r="W92" s="4">
+        <v>105.523</v>
+      </c>
+      <c r="X92" s="4">
+        <v>109.336</v>
+      </c>
+      <c r="Y92" s="4">
+        <v>103.649</v>
+      </c>
+      <c r="Z92" s="4">
+        <v>84.72</v>
+      </c>
+      <c r="AA92" s="4">
+        <v>92.587000000000003</v>
+      </c>
+      <c r="AB92" s="4">
+        <v>97.102000000000004</v>
+      </c>
+      <c r="AC92" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD92" s="4">
+        <v>102.605</v>
+      </c>
+      <c r="AE92" s="4">
+        <v>105.645</v>
+      </c>
+      <c r="AF92" s="4">
+        <v>104.569</v>
+      </c>
+      <c r="AG92" s="4">
+        <v>103.15300000000001</v>
+      </c>
+      <c r="AH92" s="4">
+        <v>103.89400000000001</v>
+      </c>
+      <c r="AI92" s="4">
+        <v>106.327</v>
+      </c>
+      <c r="AJ92" s="4">
+        <v>102.77500000000001</v>
+      </c>
+      <c r="AK92" s="4">
+        <v>94.204999999999998</v>
+      </c>
+      <c r="AL92" s="4">
+        <v>98.084000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="4">
+        <v>945.08500000000004</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1028.6659999999999</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1071.3810000000001</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1073.212</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1047.8889999999999</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1110.6610000000001</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1178.079</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1291.5219999999999</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1388.5119999999999</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1450.2280000000001</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1564.511</v>
+      </c>
+      <c r="O93" s="4">
+        <v>1626.875</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1690.701</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>1724.692</v>
+      </c>
+      <c r="R93" s="4">
+        <v>1584.972</v>
+      </c>
+      <c r="S93" s="4">
+        <v>1563.204</v>
+      </c>
+      <c r="T93" s="4">
+        <v>1588.3119999999999</v>
+      </c>
+      <c r="U93" s="4">
+        <v>1678.9939999999999</v>
+      </c>
+      <c r="V93" s="4">
+        <v>1802.539</v>
+      </c>
+      <c r="W93" s="4">
+        <v>1905.481</v>
+      </c>
+      <c r="X93" s="4">
+        <v>2002.375</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>1956.778</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>1577.261</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>1754.6210000000001</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>1887.8489999999999</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>1963.3050000000001</v>
+      </c>
+      <c r="AD93" s="4">
+        <v>2023.146</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>2107.7049999999999</v>
+      </c>
+      <c r="AF93" s="4">
+        <v>2086.3000000000002</v>
+      </c>
+      <c r="AG93" s="4">
+        <v>2055.098</v>
+      </c>
+      <c r="AH93" s="4">
+        <v>2108.4630000000002</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>2219.3139999999999</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>2170.096</v>
+      </c>
+      <c r="AK93" s="4">
+        <v>2029.883</v>
+      </c>
+      <c r="AL93" s="4">
+        <v>2288.4839999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>42</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" s="4">
+        <v>35.488999999999997</v>
+      </c>
+      <c r="E94" s="4">
+        <v>37.578000000000003</v>
+      </c>
+      <c r="F94" s="4">
+        <v>39.426000000000002</v>
+      </c>
+      <c r="G94" s="4">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="H94" s="4">
+        <v>40.875</v>
+      </c>
+      <c r="I94" s="4">
+        <v>43.183999999999997</v>
+      </c>
+      <c r="J94" s="4">
+        <v>45.566000000000003</v>
+      </c>
+      <c r="K94" s="4">
+        <v>48.128999999999998</v>
+      </c>
+      <c r="L94" s="4">
+        <v>50.350999999999999</v>
+      </c>
+      <c r="M94" s="4">
+        <v>53.44</v>
+      </c>
+      <c r="N94" s="4">
+        <v>57.749000000000002</v>
+      </c>
+      <c r="O94" s="4">
+        <v>60.976999999999997</v>
+      </c>
+      <c r="P94" s="4">
+        <v>64.703999999999994</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>67.694000000000003</v>
+      </c>
+      <c r="R94" s="4">
+        <v>67.472999999999999</v>
+      </c>
+      <c r="S94" s="4">
+        <v>70.484999999999999</v>
+      </c>
+      <c r="T94" s="4">
+        <v>73.396000000000001</v>
+      </c>
+      <c r="U94" s="4">
+        <v>77.575999999999993</v>
+      </c>
+      <c r="V94" s="4">
+        <v>81.814999999999998</v>
+      </c>
+      <c r="W94" s="4">
+        <v>84.971999999999994</v>
+      </c>
+      <c r="X94" s="4">
+        <v>88.292000000000002</v>
+      </c>
+      <c r="Y94" s="4">
+        <v>89.423000000000002</v>
+      </c>
+      <c r="Z94" s="4">
+        <v>74.088999999999999</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>86.331999999999994</v>
+      </c>
+      <c r="AB94" s="4">
+        <v>94.596000000000004</v>
+      </c>
+      <c r="AC94" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD94" s="4">
+        <v>102.875</v>
+      </c>
+      <c r="AE94" s="4">
+        <v>106.767</v>
+      </c>
+      <c r="AF94" s="4">
+        <v>107.67100000000001</v>
+      </c>
+      <c r="AG94" s="4">
+        <v>106.944</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>110.764</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>113.634</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>112.345</v>
+      </c>
+      <c r="AK94" s="4">
+        <v>107.851</v>
+      </c>
+      <c r="AL94" s="4">
+        <v>119.756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>42</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="4">
+        <v>337.62299999999999</v>
+      </c>
+      <c r="E95" s="4">
+        <v>371.84699999999998</v>
+      </c>
+      <c r="F95" s="4">
+        <v>391.87200000000001</v>
+      </c>
+      <c r="G95" s="4">
+        <v>417.76900000000001</v>
+      </c>
+      <c r="H95" s="4">
+        <v>415.89</v>
+      </c>
+      <c r="I95" s="4">
+        <v>433.80200000000002</v>
+      </c>
+      <c r="J95" s="4">
+        <v>469.53500000000003</v>
+      </c>
+      <c r="K95" s="4">
+        <v>510.08699999999999</v>
+      </c>
+      <c r="L95" s="4">
+        <v>565.62099999999998</v>
+      </c>
+      <c r="M95" s="4">
+        <v>582.096</v>
+      </c>
+      <c r="N95" s="4">
+        <v>613.50699999999995</v>
+      </c>
+      <c r="O95" s="4">
+        <v>634.09100000000001</v>
+      </c>
+      <c r="P95" s="4">
+        <v>680.35500000000002</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>730.83500000000004</v>
+      </c>
+      <c r="R95" s="4">
+        <v>713.28499999999997</v>
+      </c>
+      <c r="S95" s="4">
+        <v>742.428</v>
+      </c>
+      <c r="T95" s="4">
+        <v>773.88400000000001</v>
+      </c>
+      <c r="U95" s="4">
+        <v>852.01499999999999</v>
+      </c>
+      <c r="V95" s="4">
+        <v>931.11800000000005</v>
+      </c>
+      <c r="W95" s="4">
+        <v>1009.866</v>
+      </c>
+      <c r="X95" s="4">
+        <v>1083.0050000000001</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>1137.5029999999999</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>980.72199999999998</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>1168.7360000000001</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>1320.373</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>1436.0029999999999</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>1503.568</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>1580.6569999999999</v>
+      </c>
+      <c r="AF95" s="4">
+        <v>1606.3440000000001</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>1603.2149999999999</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>1697.9770000000001</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>1784.35</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>1808.17</v>
+      </c>
+      <c r="AK95" s="4">
+        <v>1768.23</v>
+      </c>
+      <c r="AL95" s="4">
+        <v>2088.547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="4">
+        <v>50.493000000000002</v>
+      </c>
+      <c r="E96" s="4">
+        <v>53.011000000000003</v>
+      </c>
+      <c r="F96" s="4">
+        <v>54.512</v>
+      </c>
+      <c r="G96" s="4">
+        <v>55.578000000000003</v>
+      </c>
+      <c r="H96" s="4">
+        <v>54.932000000000002</v>
+      </c>
+      <c r="I96" s="4">
+        <v>57.368000000000002</v>
+      </c>
+      <c r="J96" s="4">
+        <v>60.345999999999997</v>
+      </c>
+      <c r="K96" s="4">
+        <v>64.864999999999995</v>
+      </c>
+      <c r="L96" s="4">
+        <v>67.929000000000002</v>
+      </c>
+      <c r="M96" s="4">
+        <v>71.876000000000005</v>
+      </c>
+      <c r="N96" s="4">
+        <v>75.36</v>
+      </c>
+      <c r="O96" s="4">
+        <v>78.972999999999999</v>
+      </c>
+      <c r="P96" s="4">
+        <v>83.771000000000001</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>86.123000000000005</v>
+      </c>
+      <c r="R96" s="4">
+        <v>85.156000000000006</v>
+      </c>
+      <c r="S96" s="4">
+        <v>90.180999999999997</v>
+      </c>
+      <c r="T96" s="4">
+        <v>95.094999999999999</v>
+      </c>
+      <c r="U96" s="4">
+        <v>100.129</v>
+      </c>
+      <c r="V96" s="4">
+        <v>101.604</v>
+      </c>
+      <c r="W96" s="4">
+        <v>103.622</v>
+      </c>
+      <c r="X96" s="4">
+        <v>103.14700000000001</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>96.775999999999996</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>90.730999999999995</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>96.825000000000003</v>
+      </c>
+      <c r="AB96" s="4">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="AC96" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD96" s="4">
+        <v>104.035</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>107.774</v>
+      </c>
+      <c r="AF96" s="4">
+        <v>113.31699999999999</v>
+      </c>
+      <c r="AG96" s="4">
+        <v>117.94</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>121.67700000000001</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>126.358</v>
+      </c>
+      <c r="AJ96" s="4">
+        <v>127.55200000000001</v>
+      </c>
+      <c r="AK96" s="4">
+        <v>128.91200000000001</v>
+      </c>
+      <c r="AL96" s="4">
+        <v>137.17699999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="4">
+        <v>453.19799999999998</v>
+      </c>
+      <c r="E97" s="4">
+        <v>473.16399999999999</v>
+      </c>
+      <c r="F97" s="4">
+        <v>499.90499999999997</v>
+      </c>
+      <c r="G97" s="4">
+        <v>519.77300000000002</v>
+      </c>
+      <c r="H97" s="4">
+        <v>525.42499999999995</v>
+      </c>
+      <c r="I97" s="4">
+        <v>552.75199999999995</v>
+      </c>
+      <c r="J97" s="4">
+        <v>598.49300000000005</v>
+      </c>
+      <c r="K97" s="4">
+        <v>653.52300000000002</v>
+      </c>
+      <c r="L97" s="4">
+        <v>693.97699999999998</v>
+      </c>
+      <c r="M97" s="4">
+        <v>729.09299999999996</v>
+      </c>
+      <c r="N97" s="4">
+        <v>757.97799999999995</v>
+      </c>
+      <c r="O97" s="4">
+        <v>787.60599999999999</v>
+      </c>
+      <c r="P97" s="4">
+        <v>841.85500000000002</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>881.87</v>
+      </c>
+      <c r="R97" s="4">
+        <v>866.96500000000003</v>
+      </c>
+      <c r="S97" s="4">
+        <v>918.11099999999999</v>
+      </c>
+      <c r="T97" s="4">
+        <v>973.07600000000002</v>
+      </c>
+      <c r="U97" s="4">
+        <v>1045.886</v>
+      </c>
+      <c r="V97" s="4">
+        <v>1083.146</v>
+      </c>
+      <c r="W97" s="4">
+        <v>1135.394</v>
+      </c>
+      <c r="X97" s="4">
+        <v>1165.8109999999999</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>1112.482</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>1056.6790000000001</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>1136.06</v>
+      </c>
+      <c r="AB97" s="4">
+        <v>1163.646</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>1223.22</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>1289.1020000000001</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>1351.2670000000001</v>
+      </c>
+      <c r="AF97" s="4">
+        <v>1442.9780000000001</v>
+      </c>
+      <c r="AG97" s="4">
+        <v>1504.954</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>1560.085</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>1643.9390000000001</v>
+      </c>
+      <c r="AJ97" s="4">
+        <v>1687.325</v>
+      </c>
+      <c r="AK97" s="4">
+        <v>1826.837</v>
+      </c>
+      <c r="AL97" s="4">
+        <v>2111.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="4">
+        <v>49.204999999999998</v>
+      </c>
+      <c r="E98" s="4">
+        <v>52.878</v>
+      </c>
+      <c r="F98" s="4">
+        <v>54.368000000000002</v>
+      </c>
+      <c r="G98" s="4">
+        <v>56.338999999999999</v>
+      </c>
+      <c r="H98" s="4">
+        <v>56.921999999999997</v>
+      </c>
+      <c r="I98" s="4">
+        <v>60.100999999999999</v>
+      </c>
+      <c r="J98" s="4">
+        <v>62.058999999999997</v>
+      </c>
+      <c r="K98" s="4">
+        <v>65.77</v>
+      </c>
+      <c r="L98" s="4">
+        <v>67.852999999999994</v>
+      </c>
+      <c r="M98" s="4">
+        <v>70.724000000000004</v>
+      </c>
+      <c r="N98" s="4">
+        <v>73.382999999999996</v>
+      </c>
+      <c r="O98" s="4">
+        <v>76.86</v>
+      </c>
+      <c r="P98" s="4">
+        <v>79.537000000000006</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>81.86</v>
+      </c>
+      <c r="R98" s="4">
+        <v>79.194000000000003</v>
+      </c>
+      <c r="S98" s="4">
+        <v>79.268000000000001</v>
+      </c>
+      <c r="T98" s="4">
+        <v>80.671999999999997</v>
+      </c>
+      <c r="U98" s="4">
+        <v>86.430999999999997</v>
+      </c>
+      <c r="V98" s="4">
+        <v>90.623000000000005</v>
+      </c>
+      <c r="W98" s="4">
+        <v>94.576999999999998</v>
+      </c>
+      <c r="X98" s="4">
+        <v>97.221000000000004</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>94.82</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>85.103999999999999</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>90.234999999999999</v>
+      </c>
+      <c r="AB98" s="4">
+        <v>95.147999999999996</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>102.154</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>107.027</v>
+      </c>
+      <c r="AF98" s="4">
+        <v>108.65</v>
+      </c>
+      <c r="AG98" s="4">
+        <v>109.80200000000001</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>114.607</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>119.733</v>
+      </c>
+      <c r="AJ98" s="4">
+        <v>120.819</v>
+      </c>
+      <c r="AK98" s="4">
+        <v>104.961</v>
+      </c>
+      <c r="AL98" s="4">
+        <v>117.499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="4">
+        <v>235.55699999999999</v>
+      </c>
+      <c r="E99" s="4">
+        <v>259.66500000000002</v>
+      </c>
+      <c r="F99" s="4">
+        <v>275.07600000000002</v>
+      </c>
+      <c r="G99" s="4">
+        <v>295.26900000000001</v>
+      </c>
+      <c r="H99" s="4">
+        <v>297.39</v>
+      </c>
+      <c r="I99" s="4">
+        <v>314.05099999999999</v>
+      </c>
+      <c r="J99" s="4">
+        <v>331.416</v>
+      </c>
+      <c r="K99" s="4">
+        <v>351.79599999999999</v>
+      </c>
+      <c r="L99" s="4">
+        <v>369.91800000000001</v>
+      </c>
+      <c r="M99" s="4">
+        <v>394.70499999999998</v>
+      </c>
+      <c r="N99" s="4">
+        <v>411.673</v>
+      </c>
+      <c r="O99" s="4">
+        <v>432.68400000000003</v>
+      </c>
+      <c r="P99" s="4">
+        <v>455.858</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>489.58300000000003</v>
+      </c>
+      <c r="R99" s="4">
+        <v>483.209</v>
+      </c>
+      <c r="S99" s="4">
+        <v>479.73899999999998</v>
+      </c>
+      <c r="T99" s="4">
+        <v>506.49700000000001</v>
+      </c>
+      <c r="U99" s="4">
+        <v>554.89700000000005</v>
+      </c>
+      <c r="V99" s="4">
+        <v>608.27099999999996</v>
+      </c>
+      <c r="W99" s="4">
+        <v>663.99</v>
+      </c>
+      <c r="X99" s="4">
+        <v>701.101</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>731.12800000000004</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>627.101</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>694.26300000000003</v>
+      </c>
+      <c r="AB99" s="4">
+        <v>769.58500000000004</v>
+      </c>
+      <c r="AC99" s="4">
+        <v>825.03099999999995</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>854.87</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>909.74599999999998</v>
+      </c>
+      <c r="AF99" s="4">
+        <v>913.43399999999997</v>
+      </c>
+      <c r="AG99" s="4">
+        <v>918.00900000000001</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>980.09500000000003</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>1071.222</v>
+      </c>
+      <c r="AJ99" s="4">
+        <v>1104.3510000000001</v>
+      </c>
+      <c r="AK99" s="4">
+        <v>1002.592</v>
+      </c>
+      <c r="AL99" s="4">
+        <v>1215.3330000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>51</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="4">
+        <v>29.321999999999999</v>
+      </c>
+      <c r="E100" s="4">
+        <v>30.573</v>
+      </c>
+      <c r="F100" s="4">
+        <v>31.641999999999999</v>
+      </c>
+      <c r="G100" s="4">
+        <v>32.753999999999998</v>
+      </c>
+      <c r="H100" s="4">
+        <v>32.929000000000002</v>
+      </c>
+      <c r="I100" s="4">
+        <v>34.311999999999998</v>
+      </c>
+      <c r="J100" s="4">
+        <v>36.578000000000003</v>
+      </c>
+      <c r="K100" s="4">
+        <v>38.828000000000003</v>
+      </c>
+      <c r="L100" s="4">
+        <v>41.896999999999998</v>
+      </c>
+      <c r="M100" s="4">
+        <v>45.301000000000002</v>
+      </c>
+      <c r="N100" s="4">
+        <v>49.481999999999999</v>
+      </c>
+      <c r="O100" s="4">
+        <v>55.378999999999998</v>
+      </c>
+      <c r="P100" s="4">
+        <v>61.612000000000002</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>66.724999999999994</v>
+      </c>
+      <c r="R100" s="4">
+        <v>67.584999999999994</v>
+      </c>
+      <c r="S100" s="4">
+        <v>68.194000000000003</v>
+      </c>
+      <c r="T100" s="4">
+        <v>69.460999999999999</v>
+      </c>
+      <c r="U100" s="4">
+        <v>72.394999999999996</v>
+      </c>
+      <c r="V100" s="4">
+        <v>76.792000000000002</v>
+      </c>
+      <c r="W100" s="4">
+        <v>81.596000000000004</v>
+      </c>
+      <c r="X100" s="4">
+        <v>85.665999999999997</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>88.667000000000002</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>87.466999999999999</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>91.793000000000006</v>
+      </c>
+      <c r="AB100" s="4">
+        <v>96.376999999999995</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>104.628</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>110.688</v>
+      </c>
+      <c r="AF100" s="4">
+        <v>117.901</v>
+      </c>
+      <c r="AG100" s="4">
+        <v>124.789</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>131.185</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>138.733</v>
+      </c>
+      <c r="AJ100" s="4">
+        <v>145.16</v>
+      </c>
+      <c r="AK100" s="4">
+        <v>148.29599999999999</v>
+      </c>
+      <c r="AL100" s="4">
+        <v>167.22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>51</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="4">
+        <v>268.57499999999999</v>
+      </c>
+      <c r="E101" s="4">
+        <v>286.899</v>
+      </c>
+      <c r="F101" s="4">
+        <v>306.29899999999998</v>
+      </c>
+      <c r="G101" s="4">
+        <v>327.10500000000002</v>
+      </c>
+      <c r="H101" s="4">
+        <v>340.52499999999998</v>
+      </c>
+      <c r="I101" s="4">
+        <v>358.85199999999998</v>
+      </c>
+      <c r="J101" s="4">
+        <v>388.95499999999998</v>
+      </c>
+      <c r="K101" s="4">
+        <v>419.678</v>
+      </c>
+      <c r="L101" s="4">
+        <v>462.262</v>
+      </c>
+      <c r="M101" s="4">
+        <v>511.52</v>
+      </c>
+      <c r="N101" s="4">
+        <v>568.76900000000001</v>
+      </c>
+      <c r="O101" s="4">
+        <v>634.41399999999999</v>
+      </c>
+      <c r="P101" s="4">
+        <v>709.17399999999998</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>773.61400000000003</v>
+      </c>
+      <c r="R101" s="4">
+        <v>788.78200000000004</v>
+      </c>
+      <c r="S101" s="4">
+        <v>797.52099999999996</v>
+      </c>
+      <c r="T101" s="4">
+        <v>816.31299999999999</v>
+      </c>
+      <c r="U101" s="4">
+        <v>851.274</v>
+      </c>
+      <c r="V101" s="4">
+        <v>894.24</v>
+      </c>
+      <c r="W101" s="4">
+        <v>950.21500000000003</v>
+      </c>
+      <c r="X101" s="4">
+        <v>1000.71</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>1040.1369999999999</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>1015.595</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>1058.3009999999999</v>
+      </c>
+      <c r="AB101" s="4">
+        <v>1112.184</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>1161.846</v>
+      </c>
+      <c r="AD101" s="4">
+        <v>1219.3150000000001</v>
+      </c>
+      <c r="AE101" s="4">
+        <v>1289.8219999999999</v>
+      </c>
+      <c r="AF101" s="4">
+        <v>1356.5309999999999</v>
+      </c>
+      <c r="AG101" s="4">
+        <v>1436.345</v>
+      </c>
+      <c r="AH101" s="4">
+        <v>1501.123</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>1591.0060000000001</v>
+      </c>
+      <c r="AJ101" s="4">
+        <v>1671.9259999999999</v>
+      </c>
+      <c r="AK101" s="4">
+        <v>1728.317</v>
+      </c>
+      <c r="AL101" s="4">
+        <v>1965.1289999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>52</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45.158000000000001</v>
+      </c>
+      <c r="E102" s="4">
+        <v>45.027999999999999</v>
+      </c>
+      <c r="F102" s="4">
+        <v>45.947000000000003</v>
+      </c>
+      <c r="G102" s="4">
+        <v>45.542999999999999</v>
+      </c>
+      <c r="H102" s="4">
+        <v>46.265000000000001</v>
+      </c>
+      <c r="I102" s="4">
+        <v>46.32</v>
+      </c>
+      <c r="J102" s="4">
+        <v>49.853999999999999</v>
+      </c>
+      <c r="K102" s="4">
+        <v>51.234000000000002</v>
+      </c>
+      <c r="L102" s="4">
+        <v>53.295999999999999</v>
+      </c>
+      <c r="M102" s="4">
+        <v>56.726999999999997</v>
+      </c>
+      <c r="N102" s="4">
+        <v>60.423999999999999</v>
+      </c>
+      <c r="O102" s="4">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="P102" s="4">
+        <v>73.494</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>81.019000000000005</v>
+      </c>
+      <c r="R102" s="4">
+        <v>79.546000000000006</v>
+      </c>
+      <c r="S102" s="4">
+        <v>79.105999999999995</v>
+      </c>
+      <c r="T102" s="4">
+        <v>80.075999999999993</v>
+      </c>
+      <c r="U102" s="4">
+        <v>82.268000000000001</v>
+      </c>
+      <c r="V102" s="4">
+        <v>87.963999999999999</v>
+      </c>
+      <c r="W102" s="4">
+        <v>90.426000000000002</v>
+      </c>
+      <c r="X102" s="4">
+        <v>93.314999999999998</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>93.17</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>95.268000000000001</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>93.825999999999993</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>95.456000000000003</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>100.627</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>104.27800000000001</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>106.94499999999999</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>107.617</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>109.705</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>110.70699999999999</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>112.10299999999999</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>114.012</v>
+      </c>
+      <c r="AL102" s="4">
+        <v>118.89100000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>52</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="4">
+        <v>407.52100000000002</v>
+      </c>
+      <c r="E103" s="4">
+        <v>426.09800000000001</v>
+      </c>
+      <c r="F103" s="4">
+        <v>454.60700000000003</v>
+      </c>
+      <c r="G103" s="4">
+        <v>470.42599999999999</v>
+      </c>
+      <c r="H103" s="4">
+        <v>498.79500000000002</v>
+      </c>
+      <c r="I103" s="4">
+        <v>524.00800000000004</v>
+      </c>
+      <c r="J103" s="4">
+        <v>574.54600000000005</v>
+      </c>
+      <c r="K103" s="4">
+        <v>598.67600000000004</v>
+      </c>
+      <c r="L103" s="4">
+        <v>646.93100000000004</v>
+      </c>
+      <c r="M103" s="4">
+        <v>709.49800000000005</v>
+      </c>
+      <c r="N103" s="4">
+        <v>777.71100000000001</v>
+      </c>
+      <c r="O103" s="4">
+        <v>851.74699999999996</v>
+      </c>
+      <c r="P103" s="4">
+        <v>934.03499999999997</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>1040.9680000000001</v>
+      </c>
+      <c r="R103" s="4">
+        <v>1042.4649999999999</v>
+      </c>
+      <c r="S103" s="4">
+        <v>1055.653</v>
+      </c>
+      <c r="T103" s="4">
+        <v>1118.6559999999999</v>
+      </c>
+      <c r="U103" s="4">
+        <v>1183.498</v>
+      </c>
+      <c r="V103" s="4">
+        <v>1301.325</v>
+      </c>
+      <c r="W103" s="4">
+        <v>1381.845</v>
+      </c>
+      <c r="X103" s="4">
+        <v>1466.921</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>1454.1849999999999</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>1385.819</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>1430.866</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>1488.336</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>1606.33</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>1671.721</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>1809.279</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>1897.9929999999999</v>
+      </c>
+      <c r="AG103" s="4">
+        <v>1974.8420000000001</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>2095.4639999999999</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>2227.348</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>2307.3380000000002</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>2368.9160000000002</v>
+      </c>
+      <c r="AL103" s="4">
+        <v>2552.1309999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>53</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="4">
+        <v>48.215000000000003</v>
+      </c>
+      <c r="E104" s="4">
+        <v>52.615000000000002</v>
+      </c>
+      <c r="F104" s="4">
+        <v>54.116</v>
+      </c>
+      <c r="G104" s="4">
+        <v>56.86</v>
+      </c>
+      <c r="H104" s="4">
+        <v>55.947000000000003</v>
+      </c>
+      <c r="I104" s="4">
+        <v>57.701999999999998</v>
+      </c>
+      <c r="J104" s="4">
+        <v>58.543999999999997</v>
+      </c>
+      <c r="K104" s="4">
+        <v>61.087000000000003</v>
+      </c>
+      <c r="L104" s="4">
+        <v>61.1</v>
+      </c>
+      <c r="M104" s="4">
+        <v>64.894999999999996</v>
+      </c>
+      <c r="N104" s="4">
+        <v>66.691999999999993</v>
+      </c>
+      <c r="O104" s="4">
+        <v>70.320999999999998</v>
+      </c>
+      <c r="P104" s="4">
+        <v>73.456000000000003</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>77.171000000000006</v>
+      </c>
+      <c r="R104" s="4">
+        <v>78.114999999999995</v>
+      </c>
+      <c r="S104" s="4">
+        <v>81.182000000000002</v>
+      </c>
+      <c r="T104" s="4">
+        <v>85.527000000000001</v>
+      </c>
+      <c r="U104" s="4">
+        <v>92.507000000000005</v>
+      </c>
+      <c r="V104" s="4">
+        <v>101.262</v>
+      </c>
+      <c r="W104" s="4">
+        <v>100.364</v>
+      </c>
+      <c r="X104" s="4">
+        <v>98.903999999999996</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>93.307000000000002</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>88.152000000000001</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>92.525000000000006</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>94.51</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>105.121</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>108.66500000000001</v>
+      </c>
+      <c r="AF104" s="4">
+        <v>113.17</v>
+      </c>
+      <c r="AG104" s="4">
+        <v>117.128</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>117.126</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>119.627</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>127.34699999999999</v>
+      </c>
+      <c r="AK104" s="4">
+        <v>122.649</v>
+      </c>
+      <c r="AL104" s="4">
+        <v>128.58199999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>53</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="4">
+        <v>369.18599999999998</v>
+      </c>
+      <c r="E105" s="4">
+        <v>422.33100000000002</v>
+      </c>
+      <c r="F105" s="4">
+        <v>451.26400000000001</v>
+      </c>
+      <c r="G105" s="4">
+        <v>496.08</v>
+      </c>
+      <c r="H105" s="4">
+        <v>502.80500000000001</v>
+      </c>
+      <c r="I105" s="4">
+        <v>533.76700000000005</v>
+      </c>
+      <c r="J105" s="4">
+        <v>557.98800000000006</v>
+      </c>
+      <c r="K105" s="4">
+        <v>597.78399999999999</v>
+      </c>
+      <c r="L105" s="4">
+        <v>618.21600000000001</v>
+      </c>
+      <c r="M105" s="4">
+        <v>675.29399999999998</v>
+      </c>
+      <c r="N105" s="4">
+        <v>714.42899999999997</v>
+      </c>
+      <c r="O105" s="4">
+        <v>761.10900000000004</v>
+      </c>
+      <c r="P105" s="4">
+        <v>814.10599999999999</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>888.91499999999996</v>
+      </c>
+      <c r="R105" s="4">
+        <v>920.81500000000005</v>
+      </c>
+      <c r="S105" s="4">
+        <v>978.13800000000003</v>
+      </c>
+      <c r="T105" s="4">
+        <v>1059.7550000000001</v>
+      </c>
+      <c r="U105" s="4">
+        <v>1181.6780000000001</v>
+      </c>
+      <c r="V105" s="4">
+        <v>1338.865</v>
+      </c>
+      <c r="W105" s="4">
+        <v>1369.357</v>
+      </c>
+      <c r="X105" s="4">
+        <v>1373.896</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>1323.1690000000001</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>1239.192</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>1314.0550000000001</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>1363.1130000000001</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>1469.501</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>1577.5</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>1671.354</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>1770.396</v>
+      </c>
+      <c r="AG105" s="4">
+        <v>1867.19</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>1918.1320000000001</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>2025.1590000000001</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>2212.1680000000001</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>2180.875</v>
+      </c>
+      <c r="AL105" s="4">
+        <v>2384.2510000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>54</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="4">
+        <v>35.774999999999999</v>
+      </c>
+      <c r="E106" s="4">
+        <v>39.139000000000003</v>
+      </c>
+      <c r="F106" s="4">
+        <v>42.316000000000003</v>
+      </c>
+      <c r="G106" s="4">
+        <v>44.106000000000002</v>
+      </c>
+      <c r="H106" s="4">
+        <v>43.405000000000001</v>
+      </c>
+      <c r="I106" s="4">
+        <v>44.335000000000001</v>
+      </c>
+      <c r="J106" s="4">
+        <v>46.334000000000003</v>
+      </c>
+      <c r="K106" s="4">
+        <v>47.850999999999999</v>
+      </c>
+      <c r="L106" s="4">
+        <v>50.715000000000003</v>
+      </c>
+      <c r="M106" s="4">
+        <v>54.851999999999997</v>
+      </c>
+      <c r="N106" s="4">
+        <v>61.021999999999998</v>
+      </c>
+      <c r="O106" s="4">
+        <v>65.781999999999996</v>
+      </c>
+      <c r="P106" s="4">
+        <v>70.039000000000001</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>74.275999999999996</v>
+      </c>
+      <c r="R106" s="4">
+        <v>75.12</v>
+      </c>
+      <c r="S106" s="4">
+        <v>75.057000000000002</v>
+      </c>
+      <c r="T106" s="4">
+        <v>76.724999999999994</v>
+      </c>
+      <c r="U106" s="4">
+        <v>79.373999999999995</v>
+      </c>
+      <c r="V106" s="4">
+        <v>83.238</v>
+      </c>
+      <c r="W106" s="4">
+        <v>85.744</v>
+      </c>
+      <c r="X106" s="4">
+        <v>89.778999999999996</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>92.947000000000003</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>88.938999999999993</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>92.093999999999994</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>96.225999999999999</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>100.626</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>104.99299999999999</v>
+      </c>
+      <c r="AF106" s="4">
+        <v>107.947</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>111.361</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>116.068</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>121.765</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>127.521</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>128.869</v>
+      </c>
+      <c r="AL106" s="4">
+        <v>141.89699999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>54</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="4">
+        <v>291.26499999999999</v>
+      </c>
+      <c r="E107" s="4">
+        <v>332.31099999999998</v>
+      </c>
+      <c r="F107" s="4">
+        <v>373.209</v>
+      </c>
+      <c r="G107" s="4">
+        <v>406.21699999999998</v>
+      </c>
+      <c r="H107" s="4">
+        <v>415.96800000000002</v>
+      </c>
+      <c r="I107" s="4">
+        <v>439.92</v>
+      </c>
+      <c r="J107" s="4">
+        <v>472.81200000000001</v>
+      </c>
+      <c r="K107" s="4">
+        <v>501.7</v>
+      </c>
+      <c r="L107" s="4">
+        <v>550.673</v>
+      </c>
+      <c r="M107" s="4">
+        <v>610.88099999999997</v>
+      </c>
+      <c r="N107" s="4">
+        <v>702.29600000000005</v>
+      </c>
+      <c r="O107" s="4">
+        <v>774.59</v>
+      </c>
+      <c r="P107" s="4">
+        <v>849.71699999999998</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>932.32399999999996</v>
+      </c>
+      <c r="R107" s="4">
+        <v>959.13</v>
+      </c>
+      <c r="S107" s="4">
+        <v>969.85799999999995</v>
+      </c>
+      <c r="T107" s="4">
+        <v>1007.73</v>
+      </c>
+      <c r="U107" s="4">
+        <v>1071.7470000000001</v>
+      </c>
+      <c r="V107" s="4">
+        <v>1155.348</v>
+      </c>
+      <c r="W107" s="4">
+        <v>1233.6659999999999</v>
+      </c>
+      <c r="X107" s="4">
+        <v>1332.325</v>
+      </c>
+      <c r="Y107" s="4">
+        <v>1414.518</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>1364.489</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>1424.0920000000001</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>1509.7190000000001</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>1587.046</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>1616.682</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>1700.8820000000001</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>1775.817</v>
+      </c>
+      <c r="AG107" s="4">
+        <v>1842.9169999999999</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>1948.952</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>2073.4050000000002</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>2199.7640000000001</v>
+      </c>
+      <c r="AK107" s="4">
+        <v>2303.5250000000001</v>
+      </c>
+      <c r="AL107" s="4">
+        <v>2531.4340000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>55</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="4">
+        <v>53.514000000000003</v>
+      </c>
+      <c r="E108" s="4">
+        <v>54.162999999999997</v>
+      </c>
+      <c r="F108" s="4">
+        <v>58.768999999999998</v>
+      </c>
+      <c r="G108" s="4">
+        <v>61.764000000000003</v>
+      </c>
+      <c r="H108" s="4">
+        <v>59.536999999999999</v>
+      </c>
+      <c r="I108" s="4">
+        <v>58.218000000000004</v>
+      </c>
+      <c r="J108" s="4">
+        <v>58.375999999999998</v>
+      </c>
+      <c r="K108" s="4">
+        <v>61.204000000000001</v>
+      </c>
+      <c r="L108" s="4">
+        <v>62.429000000000002</v>
+      </c>
+      <c r="M108" s="4">
+        <v>64.075999999999993</v>
+      </c>
+      <c r="N108" s="4">
+        <v>68.894000000000005</v>
+      </c>
+      <c r="O108" s="4">
+        <v>74.094999999999999</v>
+      </c>
+      <c r="P108" s="4">
+        <v>76.668999999999997</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>77.754000000000005</v>
+      </c>
+      <c r="R108" s="4">
+        <v>78.608999999999995</v>
+      </c>
+      <c r="S108" s="4">
+        <v>78.23</v>
+      </c>
+      <c r="T108" s="4">
+        <v>81.965000000000003</v>
+      </c>
+      <c r="U108" s="4">
+        <v>84.53</v>
+      </c>
+      <c r="V108" s="4">
+        <v>89.605000000000004</v>
+      </c>
+      <c r="W108" s="4">
+        <v>91.474999999999994</v>
+      </c>
+      <c r="X108" s="4">
+        <v>96.272999999999996</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>94.34</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>86.042000000000002</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>89.787999999999997</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>94.055999999999997</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>103.262</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>111.075</v>
+      </c>
+      <c r="AF108" s="4">
+        <v>116.012</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>117.084</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>124.387</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>131.28100000000001</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>139.6</v>
+      </c>
+      <c r="AK108" s="4">
+        <v>142.24100000000001</v>
+      </c>
+      <c r="AL108" s="4">
+        <v>153.52799999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>55</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="4">
+        <v>104.45</v>
+      </c>
+      <c r="E109" s="4">
+        <v>110.83</v>
+      </c>
+      <c r="F109" s="4">
+        <v>118.14100000000001</v>
+      </c>
+      <c r="G109" s="4">
+        <v>125.21899999999999</v>
+      </c>
+      <c r="H109" s="4">
+        <v>130.01</v>
+      </c>
+      <c r="I109" s="4">
+        <v>137.547</v>
+      </c>
+      <c r="J109" s="4">
+        <v>146.69900000000001</v>
+      </c>
+      <c r="K109" s="4">
+        <v>157.03</v>
+      </c>
+      <c r="L109" s="4">
+        <v>166.971</v>
+      </c>
+      <c r="M109" s="4">
+        <v>178.26</v>
+      </c>
+      <c r="N109" s="4">
+        <v>193.25899999999999</v>
+      </c>
+      <c r="O109" s="4">
+        <v>219.58500000000001</v>
+      </c>
+      <c r="P109" s="4">
+        <v>237.85300000000001</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>258.01</v>
+      </c>
+      <c r="R109" s="4">
+        <v>257.791</v>
+      </c>
+      <c r="S109" s="4">
+        <v>259.91000000000003</v>
+      </c>
+      <c r="T109" s="4">
+        <v>278.70100000000002</v>
+      </c>
+      <c r="U109" s="4">
+        <v>318.33699999999999</v>
+      </c>
+      <c r="V109" s="4">
+        <v>352.08600000000001</v>
+      </c>
+      <c r="W109" s="4">
+        <v>380.69200000000001</v>
+      </c>
+      <c r="X109" s="4">
+        <v>430.26900000000001</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>428.18900000000002</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>396.99700000000001</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>418.85700000000003</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>443.19799999999998</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>475.29300000000001</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>495.50099999999998</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>527.601</v>
+      </c>
+      <c r="AF109" s="4">
+        <v>557.99</v>
+      </c>
+      <c r="AG109" s="4">
+        <v>562.86699999999996</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>598.40800000000002</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>631.33799999999997</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>666.6</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>674.90899999999999</v>
+      </c>
+      <c r="AL109" s="4">
+        <v>728.68600000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>56</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="4">
+        <v>33.728999999999999</v>
+      </c>
+      <c r="E110" s="4">
+        <v>37.829000000000001</v>
+      </c>
+      <c r="F110" s="4">
+        <v>41.143000000000001</v>
+      </c>
+      <c r="G110" s="4">
+        <v>43.771000000000001</v>
+      </c>
+      <c r="H110" s="4">
+        <v>42.939</v>
+      </c>
+      <c r="I110" s="4">
+        <v>44.509</v>
+      </c>
+      <c r="J110" s="4">
+        <v>46.445999999999998</v>
+      </c>
+      <c r="K110" s="4">
+        <v>50.09</v>
+      </c>
+      <c r="L110" s="4">
+        <v>54.548000000000002</v>
+      </c>
+      <c r="M110" s="4">
+        <v>59.039000000000001</v>
+      </c>
+      <c r="N110" s="4">
+        <v>64.120999999999995</v>
+      </c>
+      <c r="O110" s="4">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="P110" s="4">
+        <v>74.936999999999998</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>78.722999999999999</v>
+      </c>
+      <c r="R110" s="4">
+        <v>76.867999999999995</v>
+      </c>
+      <c r="S110" s="4">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="T110" s="4">
+        <v>78.906000000000006</v>
+      </c>
+      <c r="U110" s="4">
+        <v>83.238</v>
+      </c>
+      <c r="V110" s="4">
+        <v>89.117000000000004</v>
+      </c>
+      <c r="W110" s="4">
+        <v>92.478999999999999</v>
+      </c>
+      <c r="X110" s="4">
+        <v>96.715999999999994</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>96.460999999999999</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>88.617000000000004</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>93.662999999999997</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>97.620999999999995</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>102.46599999999999</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>109.875</v>
+      </c>
+      <c r="AF110" s="4">
+        <v>113.45099999999999</v>
+      </c>
+      <c r="AG110" s="4">
+        <v>119.246</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>126.08199999999999</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>133.40600000000001</v>
+      </c>
+      <c r="AJ110" s="4">
+        <v>138.55099999999999</v>
+      </c>
+      <c r="AK110" s="4">
+        <v>129.923</v>
+      </c>
+      <c r="AL110" s="4">
+        <v>150.43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>56</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="4">
+        <v>122.60899999999999</v>
+      </c>
+      <c r="E111" s="4">
+        <v>144.70400000000001</v>
+      </c>
+      <c r="F111" s="4">
+        <v>163.32900000000001</v>
+      </c>
+      <c r="G111" s="4">
+        <v>182.26300000000001</v>
+      </c>
+      <c r="H111" s="4">
+        <v>185.06700000000001</v>
+      </c>
+      <c r="I111" s="4">
+        <v>199.84299999999999</v>
+      </c>
+      <c r="J111" s="4">
+        <v>213.60599999999999</v>
+      </c>
+      <c r="K111" s="4">
+        <v>237.345</v>
+      </c>
+      <c r="L111" s="4">
+        <v>265.64</v>
+      </c>
+      <c r="M111" s="4">
+        <v>295.02499999999998</v>
+      </c>
+      <c r="N111" s="4">
+        <v>328.06299999999999</v>
+      </c>
+      <c r="O111" s="4">
+        <v>370.66300000000001</v>
+      </c>
+      <c r="P111" s="4">
+        <v>403.959</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>442.27100000000002</v>
+      </c>
+      <c r="R111" s="4">
+        <v>441.935</v>
+      </c>
+      <c r="S111" s="4">
+        <v>440.3</v>
+      </c>
+      <c r="T111" s="4">
+        <v>464.303</v>
+      </c>
+      <c r="U111" s="4">
+        <v>504.06400000000002</v>
+      </c>
+      <c r="V111" s="4">
+        <v>551.04700000000003</v>
+      </c>
+      <c r="W111" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="X111" s="4">
+        <v>630.74099999999999</v>
+      </c>
+      <c r="Y111" s="4">
+        <v>645.04300000000001</v>
+      </c>
+      <c r="Z111" s="4">
+        <v>599.08500000000004</v>
+      </c>
+      <c r="AA111" s="4">
+        <v>634.34699999999998</v>
+      </c>
+      <c r="AB111" s="4">
+        <v>668.52300000000002</v>
+      </c>
+      <c r="AC111" s="4">
+        <v>692.77</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>720.25800000000004</v>
+      </c>
+      <c r="AE111" s="4">
+        <v>785.51</v>
+      </c>
+      <c r="AF111" s="4">
+        <v>825.73900000000003</v>
+      </c>
+      <c r="AG111" s="4">
+        <v>887.23699999999997</v>
+      </c>
+      <c r="AH111" s="4">
+        <v>953.18</v>
+      </c>
+      <c r="AI111" s="4">
+        <v>1026.008</v>
+      </c>
+      <c r="AJ111" s="4">
+        <v>1087.376</v>
+      </c>
+      <c r="AK111" s="4">
+        <v>1059.4929999999999</v>
+      </c>
+      <c r="AL111" s="4">
+        <v>1247.8019999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>61</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="4">
+        <v>30.875</v>
+      </c>
+      <c r="E112" s="4">
+        <v>34.335000000000001</v>
+      </c>
+      <c r="F112" s="4">
+        <v>36.392000000000003</v>
+      </c>
+      <c r="G112" s="4">
+        <v>38.003</v>
+      </c>
+      <c r="H112" s="4">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="I112" s="4">
+        <v>38.74</v>
+      </c>
+      <c r="J112" s="4">
+        <v>39.332999999999998</v>
+      </c>
+      <c r="K112" s="4">
+        <v>39.753</v>
+      </c>
+      <c r="L112" s="4">
+        <v>40.941000000000003</v>
+      </c>
+      <c r="M112" s="4">
+        <v>43.405999999999999</v>
+      </c>
+      <c r="N112" s="4">
+        <v>46.713000000000001</v>
+      </c>
+      <c r="O112" s="4">
+        <v>49.08</v>
+      </c>
+      <c r="P112" s="4">
+        <v>50.645000000000003</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>54.365000000000002</v>
+      </c>
+      <c r="R112" s="4">
+        <v>60.343000000000004</v>
+      </c>
+      <c r="S112" s="4">
+        <v>61.447000000000003</v>
+      </c>
+      <c r="T112" s="4">
+        <v>64.802999999999997</v>
+      </c>
+      <c r="U112" s="4">
+        <v>65.915999999999997</v>
+      </c>
+      <c r="V112" s="4">
+        <v>69.284999999999997</v>
+      </c>
+      <c r="W112" s="4">
+        <v>76.641000000000005</v>
+      </c>
+      <c r="X112" s="4">
+        <v>86.787000000000006</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>91.997</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>95.486000000000004</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>102.703</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>104.218</v>
+      </c>
+      <c r="AC112" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>101.824</v>
+      </c>
+      <c r="AE112" s="4">
+        <v>101.111</v>
+      </c>
+      <c r="AF112" s="4">
+        <v>103.392</v>
+      </c>
+      <c r="AG112" s="4">
+        <v>104.369</v>
+      </c>
+      <c r="AH112" s="4">
+        <v>106.65300000000001</v>
+      </c>
+      <c r="AI112" s="4">
+        <v>105.904</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>104.473</v>
+      </c>
+      <c r="AK112" s="4">
+        <v>91.512</v>
+      </c>
+      <c r="AL112" s="4">
+        <v>97.034999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>61</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="4">
+        <v>27.986999999999998</v>
+      </c>
+      <c r="E113" s="4">
+        <v>32.521999999999998</v>
+      </c>
+      <c r="F113" s="4">
+        <v>35.814</v>
+      </c>
+      <c r="G113" s="4">
+        <v>38.935000000000002</v>
+      </c>
+      <c r="H113" s="4">
+        <v>39.984999999999999</v>
+      </c>
+      <c r="I113" s="4">
+        <v>41.901000000000003</v>
+      </c>
+      <c r="J113" s="4">
+        <v>43.381</v>
+      </c>
+      <c r="K113" s="4">
+        <v>44.682000000000002</v>
+      </c>
+      <c r="L113" s="4">
+        <v>47.22</v>
+      </c>
+      <c r="M113" s="4">
+        <v>51.277999999999999</v>
+      </c>
+      <c r="N113" s="4">
+        <v>56.561999999999998</v>
+      </c>
+      <c r="O113" s="4">
+        <v>60.244999999999997</v>
+      </c>
+      <c r="P113" s="4">
+        <v>63.460999999999999</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>70.575999999999993</v>
+      </c>
+      <c r="R113" s="4">
+        <v>81.009</v>
+      </c>
+      <c r="S113" s="4">
+        <v>83.248000000000005</v>
+      </c>
+      <c r="T113" s="4">
+        <v>90.864000000000004</v>
+      </c>
+      <c r="U113" s="4">
+        <v>95.56</v>
+      </c>
+      <c r="V113" s="4">
+        <v>104.563</v>
+      </c>
+      <c r="W113" s="4">
+        <v>119.81</v>
+      </c>
+      <c r="X113" s="4">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="Y113" s="4">
+        <v>153.43899999999999</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>160.80500000000001</v>
+      </c>
+      <c r="AA113" s="4">
+        <v>176.148</v>
+      </c>
+      <c r="AB113" s="4">
+        <v>183.464</v>
+      </c>
+      <c r="AC113" s="4">
+        <v>179.767</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>186.959</v>
+      </c>
+      <c r="AE113" s="4">
+        <v>189.922</v>
+      </c>
+      <c r="AF113" s="4">
+        <v>196.31899999999999</v>
+      </c>
+      <c r="AG113" s="4">
+        <v>200.63200000000001</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>209.69200000000001</v>
+      </c>
+      <c r="AI113" s="4">
+        <v>212.81899999999999</v>
+      </c>
+      <c r="AJ113" s="4">
+        <v>214.048</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>195.18799999999999</v>
+      </c>
+      <c r="AL113" s="4">
+        <v>215.524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>62</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="E114" s="4">
+        <v>44.716999999999999</v>
+      </c>
+      <c r="F114" s="4">
+        <v>46.389000000000003</v>
+      </c>
+      <c r="G114" s="4">
+        <v>48.808999999999997</v>
+      </c>
+      <c r="H114" s="4">
+        <v>50.345999999999997</v>
+      </c>
+      <c r="I114" s="4">
+        <v>53.02</v>
+      </c>
+      <c r="J114" s="4">
+        <v>53.616</v>
+      </c>
+      <c r="K114" s="4">
+        <v>54.06</v>
+      </c>
+      <c r="L114" s="4">
+        <v>55.536999999999999</v>
+      </c>
+      <c r="M114" s="4">
+        <v>57.238999999999997</v>
+      </c>
+      <c r="N114" s="4">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="O114" s="4">
+        <v>61.023000000000003</v>
+      </c>
+      <c r="P114" s="4">
+        <v>62.372999999999998</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>64.617999999999995</v>
+      </c>
+      <c r="R114" s="4">
+        <v>68.677999999999997</v>
+      </c>
+      <c r="S114" s="4">
+        <v>73.08</v>
+      </c>
+      <c r="T114" s="4">
+        <v>76.093999999999994</v>
+      </c>
+      <c r="U114" s="4">
+        <v>78.808999999999997</v>
+      </c>
+      <c r="V114" s="4">
+        <v>81.95</v>
+      </c>
+      <c r="W114" s="4">
+        <v>84.418999999999997</v>
+      </c>
+      <c r="X114" s="4">
+        <v>86.700999999999993</v>
+      </c>
+      <c r="Y114" s="4">
+        <v>89.578000000000003</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>92.149000000000001</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>94.736000000000004</v>
+      </c>
+      <c r="AB114" s="4">
+        <v>96.605000000000004</v>
+      </c>
+      <c r="AC114" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD114" s="4">
+        <v>100.271</v>
+      </c>
+      <c r="AE114" s="4">
+        <v>102.819</v>
+      </c>
+      <c r="AF114" s="4">
+        <v>108.086</v>
+      </c>
+      <c r="AG114" s="4">
+        <v>112.792</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>115.56699999999999</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>118.89700000000001</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>123.008</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>114.503</v>
+      </c>
+      <c r="AL114" s="4">
+        <v>121.431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>62</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="4">
+        <v>286.488</v>
+      </c>
+      <c r="E115" s="4">
+        <v>320.91500000000002</v>
+      </c>
+      <c r="F115" s="4">
+        <v>352.661</v>
+      </c>
+      <c r="G115" s="4">
+        <v>392.78100000000001</v>
+      </c>
+      <c r="H115" s="4">
+        <v>426.27300000000002</v>
+      </c>
+      <c r="I115" s="4">
+        <v>468.71499999999997</v>
+      </c>
+      <c r="J115" s="4">
+        <v>490.87</v>
+      </c>
+      <c r="K115" s="4">
+        <v>513.67999999999995</v>
+      </c>
+      <c r="L115" s="4">
+        <v>545.77099999999996</v>
+      </c>
+      <c r="M115" s="4">
+        <v>573.57600000000002</v>
+      </c>
+      <c r="N115" s="4">
+        <v>603.06100000000004</v>
+      </c>
+      <c r="O115" s="4">
+        <v>639.88800000000003</v>
+      </c>
+      <c r="P115" s="4">
+        <v>670.30600000000004</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>716.90300000000002</v>
+      </c>
+      <c r="R115" s="4">
+        <v>782.56200000000001</v>
+      </c>
+      <c r="S115" s="4">
+        <v>848.25800000000004</v>
+      </c>
+      <c r="T115" s="4">
+        <v>907.06</v>
+      </c>
+      <c r="U115" s="4">
+        <v>967.76900000000001</v>
+      </c>
+      <c r="V115" s="4">
+        <v>1038.886</v>
+      </c>
+      <c r="W115" s="4">
+        <v>1099.1089999999999</v>
+      </c>
+      <c r="X115" s="4">
+        <v>1166.259</v>
+      </c>
+      <c r="Y115" s="4">
+        <v>1236.604</v>
+      </c>
+      <c r="Z115" s="4">
+        <v>1294.847</v>
+      </c>
+      <c r="AA115" s="4">
+        <v>1357.2460000000001</v>
+      </c>
+      <c r="AB115" s="4">
+        <v>1413.2570000000001</v>
+      </c>
+      <c r="AC115" s="4">
+        <v>1480.444</v>
+      </c>
+      <c r="AD115" s="4">
+        <v>1503.7539999999999</v>
+      </c>
+      <c r="AE115" s="4">
+        <v>1564.731</v>
+      </c>
+      <c r="AF115" s="4">
+        <v>1655.184</v>
+      </c>
+      <c r="AG115" s="4">
+        <v>1745.2840000000001</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>1815.711</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>1899.68</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>1997.759</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>1980.9570000000001</v>
+      </c>
+      <c r="AL115" s="4">
+        <v>2137.8429999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>71</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="4">
+        <v>41.124000000000002</v>
+      </c>
+      <c r="E116" s="4">
+        <v>44.537999999999997</v>
+      </c>
+      <c r="F116" s="4">
+        <v>46.448999999999998</v>
+      </c>
+      <c r="G116" s="4">
+        <v>49.658000000000001</v>
+      </c>
+      <c r="H116" s="4">
+        <v>50.250999999999998</v>
+      </c>
+      <c r="I116" s="4">
+        <v>54.877000000000002</v>
+      </c>
+      <c r="J116" s="4">
+        <v>59.058999999999997</v>
+      </c>
+      <c r="K116" s="4">
+        <v>62.216999999999999</v>
+      </c>
+      <c r="L116" s="4">
+        <v>68.188999999999993</v>
+      </c>
+      <c r="M116" s="4">
+        <v>71.858999999999995</v>
+      </c>
+      <c r="N116" s="4">
+        <v>74.430999999999997</v>
+      </c>
+      <c r="O116" s="4">
+        <v>76.070999999999998</v>
+      </c>
+      <c r="P116" s="4">
+        <v>77.756</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>78.828000000000003</v>
+      </c>
+      <c r="R116" s="4">
+        <v>80.778999999999996</v>
+      </c>
+      <c r="S116" s="4">
+        <v>82.004999999999995</v>
+      </c>
+      <c r="T116" s="4">
+        <v>86.15</v>
+      </c>
+      <c r="U116" s="4">
+        <v>89.215999999999994</v>
+      </c>
+      <c r="V116" s="4">
+        <v>90.819000000000003</v>
+      </c>
+      <c r="W116" s="4">
+        <v>96.867000000000004</v>
+      </c>
+      <c r="X116" s="4">
+        <v>102.84399999999999</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>100.59099999999999</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>97.828000000000003</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>98.033000000000001</v>
+      </c>
+      <c r="AB116" s="4">
+        <v>98.048000000000002</v>
+      </c>
+      <c r="AC116" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD116" s="4">
+        <v>102.20099999999999</v>
+      </c>
+      <c r="AE116" s="4">
+        <v>105.89700000000001</v>
+      </c>
+      <c r="AF116" s="4">
+        <v>108.01900000000001</v>
+      </c>
+      <c r="AG116" s="4">
+        <v>109.914</v>
+      </c>
+      <c r="AH116" s="4">
+        <v>114.601</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>119.157</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>122.22</v>
+      </c>
+      <c r="AK116" s="4">
+        <v>73.581000000000003</v>
+      </c>
+      <c r="AL116" s="4">
+        <v>100.45399999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>71</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" s="4">
+        <v>39.345999999999997</v>
+      </c>
+      <c r="E117" s="4">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="F117" s="4">
+        <v>48.497</v>
+      </c>
+      <c r="G117" s="4">
+        <v>54.581000000000003</v>
+      </c>
+      <c r="H117" s="4">
+        <v>57.783999999999999</v>
+      </c>
+      <c r="I117" s="4">
+        <v>64.486999999999995</v>
+      </c>
+      <c r="J117" s="4">
+        <v>70.906000000000006</v>
+      </c>
+      <c r="K117" s="4">
+        <v>76.546000000000006</v>
+      </c>
+      <c r="L117" s="4">
+        <v>86.221000000000004</v>
+      </c>
+      <c r="M117" s="4">
+        <v>94.034999999999997</v>
+      </c>
+      <c r="N117" s="4">
+        <v>99.405000000000001</v>
+      </c>
+      <c r="O117" s="4">
+        <v>103.825</v>
+      </c>
+      <c r="P117" s="4">
+        <v>110.08</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>115.937</v>
+      </c>
+      <c r="R117" s="4">
+        <v>123.004</v>
+      </c>
+      <c r="S117" s="4">
+        <v>127.381</v>
+      </c>
+      <c r="T117" s="4">
+        <v>137.83000000000001</v>
+      </c>
+      <c r="U117" s="4">
+        <v>146.80799999999999</v>
+      </c>
+      <c r="V117" s="4">
+        <v>155.03800000000001</v>
+      </c>
+      <c r="W117" s="4">
+        <v>171.62200000000001</v>
+      </c>
+      <c r="X117" s="4">
+        <v>187.815</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>189.48099999999999</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>186.01</v>
+      </c>
+      <c r="AA117" s="4">
+        <v>187.78700000000001</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>190.511</v>
+      </c>
+      <c r="AC117" s="4">
+        <v>198.011</v>
+      </c>
+      <c r="AD117" s="4">
+        <v>205.643</v>
+      </c>
+      <c r="AE117" s="4">
+        <v>217.636</v>
+      </c>
+      <c r="AF117" s="4">
+        <v>228.477</v>
+      </c>
+      <c r="AG117" s="4">
+        <v>238.07400000000001</v>
+      </c>
+      <c r="AH117" s="4">
+        <v>252.51400000000001</v>
+      </c>
+      <c r="AI117" s="4">
+        <v>268.214</v>
+      </c>
+      <c r="AJ117" s="4">
+        <v>281.57</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>177.90299999999999</v>
+      </c>
+      <c r="AL117" s="4">
+        <v>256.21600000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>72</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="4">
+        <v>58.011000000000003</v>
+      </c>
+      <c r="E118" s="4">
+        <v>60.917999999999999</v>
+      </c>
+      <c r="F118" s="4">
+        <v>61.475999999999999</v>
+      </c>
+      <c r="G118" s="4">
+        <v>62.698</v>
+      </c>
+      <c r="H118" s="4">
+        <v>61.97</v>
+      </c>
+      <c r="I118" s="4">
+        <v>63.494</v>
+      </c>
+      <c r="J118" s="4">
+        <v>66.028000000000006</v>
+      </c>
+      <c r="K118" s="4">
+        <v>68.545000000000002</v>
+      </c>
+      <c r="L118" s="4">
+        <v>70.033000000000001</v>
+      </c>
+      <c r="M118" s="4">
+        <v>71.653000000000006</v>
+      </c>
+      <c r="N118" s="4">
+        <v>73.944000000000003</v>
+      </c>
+      <c r="O118" s="4">
+        <v>75.897000000000006</v>
+      </c>
+      <c r="P118" s="4">
+        <v>78.483000000000004</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>82.688000000000002</v>
+      </c>
+      <c r="R118" s="4">
+        <v>81.72</v>
+      </c>
+      <c r="S118" s="4">
+        <v>81.748999999999995</v>
+      </c>
+      <c r="T118" s="4">
+        <v>85.34</v>
+      </c>
+      <c r="U118" s="4">
+        <v>89.608000000000004</v>
+      </c>
+      <c r="V118" s="4">
+        <v>92.248000000000005</v>
+      </c>
+      <c r="W118" s="4">
+        <v>95.736999999999995</v>
+      </c>
+      <c r="X118" s="4">
+        <v>97.215999999999994</v>
+      </c>
+      <c r="Y118" s="4">
+        <v>96.072999999999993</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>91.412999999999997</v>
+      </c>
+      <c r="AA118" s="4">
+        <v>93.543000000000006</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>97.225999999999999</v>
+      </c>
+      <c r="AC118" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD118" s="4">
+        <v>102.158</v>
+      </c>
+      <c r="AE118" s="4">
+        <v>105.84</v>
+      </c>
+      <c r="AF118" s="4">
+        <v>111.249</v>
+      </c>
+      <c r="AG118" s="4">
+        <v>114.375</v>
+      </c>
+      <c r="AH118" s="4">
+        <v>117.61799999999999</v>
+      </c>
+      <c r="AI118" s="4">
+        <v>119.634</v>
+      </c>
+      <c r="AJ118" s="4">
+        <v>122.773</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>95.593999999999994</v>
+      </c>
+      <c r="AL118" s="4">
+        <v>119.735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>72</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="4">
+        <v>192.15</v>
+      </c>
+      <c r="E119" s="4">
+        <v>209.70500000000001</v>
+      </c>
+      <c r="F119" s="4">
+        <v>220.73599999999999</v>
+      </c>
+      <c r="G119" s="4">
+        <v>234.38399999999999</v>
+      </c>
+      <c r="H119" s="4">
+        <v>239.196</v>
+      </c>
+      <c r="I119" s="4">
+        <v>249.41900000000001</v>
+      </c>
+      <c r="J119" s="4">
+        <v>265.24</v>
+      </c>
+      <c r="K119" s="4">
+        <v>279.81200000000001</v>
+      </c>
+      <c r="L119" s="4">
+        <v>292.41000000000003</v>
+      </c>
+      <c r="M119" s="4">
+        <v>306.29300000000001</v>
+      </c>
+      <c r="N119" s="4">
+        <v>325.96800000000002</v>
+      </c>
+      <c r="O119" s="4">
+        <v>344.42099999999999</v>
+      </c>
+      <c r="P119" s="4">
+        <v>366.40300000000002</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>396.65800000000002</v>
+      </c>
+      <c r="R119" s="4">
+        <v>405.608</v>
+      </c>
+      <c r="S119" s="4">
+        <v>414.26</v>
+      </c>
+      <c r="T119" s="4">
+        <v>439.70299999999997</v>
+      </c>
+      <c r="U119" s="4">
+        <v>474.79300000000001</v>
+      </c>
+      <c r="V119" s="4">
+        <v>505.51299999999998</v>
+      </c>
+      <c r="W119" s="4">
+        <v>540.79399999999998</v>
+      </c>
+      <c r="X119" s="4">
+        <v>570.26400000000001</v>
+      </c>
+      <c r="Y119" s="4">
+        <v>584.18299999999999</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>564.56100000000004</v>
+      </c>
+      <c r="AA119" s="4">
+        <v>580.06600000000003</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>620.47400000000005</v>
+      </c>
+      <c r="AC119" s="4">
+        <v>656.55499999999995</v>
+      </c>
+      <c r="AD119" s="4">
+        <v>683.255</v>
+      </c>
+      <c r="AE119" s="4">
+        <v>726.88400000000001</v>
+      </c>
+      <c r="AF119" s="4">
+        <v>782.03599999999994</v>
+      </c>
+      <c r="AG119" s="4">
+        <v>823.45600000000002</v>
+      </c>
+      <c r="AH119" s="4">
+        <v>862.73500000000001</v>
+      </c>
+      <c r="AI119" s="4">
+        <v>907.54700000000003</v>
+      </c>
+      <c r="AJ119" s="4">
+        <v>957.96400000000006</v>
+      </c>
+      <c r="AK119" s="4">
+        <v>784.38599999999997</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>1069.751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="4">
+        <v>61.646999999999998</v>
+      </c>
+      <c r="E120" s="4">
+        <v>66.411000000000001</v>
+      </c>
+      <c r="F120" s="4">
+        <v>70.02</v>
+      </c>
+      <c r="G120" s="4">
+        <v>71.927999999999997</v>
+      </c>
+      <c r="H120" s="4">
+        <v>69.188000000000002</v>
+      </c>
+      <c r="I120" s="4">
+        <v>74.817999999999998</v>
+      </c>
+      <c r="J120" s="4">
+        <v>76.066000000000003</v>
+      </c>
+      <c r="K120" s="4">
+        <v>79.796999999999997</v>
+      </c>
+      <c r="L120" s="4">
+        <v>83.722999999999999</v>
+      </c>
+      <c r="M120" s="4">
+        <v>87.153999999999996</v>
+      </c>
+      <c r="N120" s="4">
+        <v>88.167000000000002</v>
+      </c>
+      <c r="O120" s="4">
+        <v>94.244</v>
+      </c>
+      <c r="P120" s="4">
+        <v>97.036000000000001</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>99.44</v>
+      </c>
+      <c r="R120" s="4">
+        <v>100.889</v>
+      </c>
+      <c r="S120" s="4">
+        <v>102.057</v>
+      </c>
+      <c r="T120" s="4">
+        <v>102.104</v>
+      </c>
+      <c r="U120" s="4">
+        <v>103.533</v>
+      </c>
+      <c r="V120" s="4">
+        <v>102.878</v>
+      </c>
+      <c r="W120" s="4">
+        <v>105.605</v>
+      </c>
+      <c r="X120" s="4">
+        <v>104.33499999999999</v>
+      </c>
+      <c r="Y120" s="4">
+        <v>103.14400000000001</v>
+      </c>
+      <c r="Z120" s="4">
+        <v>94.971999999999994</v>
+      </c>
+      <c r="AA120" s="4">
+        <v>96.475999999999999</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>96.722999999999999</v>
+      </c>
+      <c r="AC120" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD120" s="4">
+        <v>98.716999999999999</v>
+      </c>
+      <c r="AE120" s="4">
+        <v>102.798</v>
+      </c>
+      <c r="AF120" s="4">
+        <v>104.31399999999999</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>107.613</v>
+      </c>
+      <c r="AH120" s="4">
+        <v>109.099</v>
+      </c>
+      <c r="AI120" s="4">
+        <v>110.643</v>
+      </c>
+      <c r="AJ120" s="4">
+        <v>111.82599999999999</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>100.246</v>
+      </c>
+      <c r="AL120" s="4">
+        <v>102.803</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>81</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="4">
+        <v>147.22300000000001</v>
+      </c>
+      <c r="E121" s="4">
+        <v>163.93</v>
+      </c>
+      <c r="F121" s="4">
+        <v>178.39099999999999</v>
+      </c>
+      <c r="G121" s="4">
+        <v>189.488</v>
+      </c>
+      <c r="H121" s="4">
+        <v>187.61699999999999</v>
+      </c>
+      <c r="I121" s="4">
+        <v>207.363</v>
+      </c>
+      <c r="J121" s="4">
+        <v>216.04499999999999</v>
+      </c>
+      <c r="K121" s="4">
+        <v>231.65700000000001</v>
+      </c>
+      <c r="L121" s="4">
+        <v>249.071</v>
+      </c>
+      <c r="M121" s="4">
+        <v>263.21100000000001</v>
+      </c>
+      <c r="N121" s="4">
+        <v>269.7</v>
+      </c>
+      <c r="O121" s="4">
+        <v>294.57299999999998</v>
+      </c>
+      <c r="P121" s="4">
+        <v>311</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>329.52</v>
+      </c>
+      <c r="R121" s="4">
+        <v>346.245</v>
+      </c>
+      <c r="S121" s="4">
+        <v>360.113</v>
+      </c>
+      <c r="T121" s="4">
+        <v>368.613</v>
+      </c>
+      <c r="U121" s="4">
+        <v>385.09</v>
+      </c>
+      <c r="V121" s="4">
+        <v>395.649</v>
+      </c>
+      <c r="W121" s="4">
+        <v>421.50599999999997</v>
+      </c>
+      <c r="X121" s="4">
+        <v>429.91399999999999</v>
+      </c>
+      <c r="Y121" s="4">
+        <v>439.74</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>412.19900000000001</v>
+      </c>
+      <c r="AA121" s="4">
+        <v>426.964</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>438.01900000000001</v>
+      </c>
+      <c r="AC121" s="4">
+        <v>462.59800000000001</v>
+      </c>
+      <c r="AD121" s="4">
+        <v>466.839</v>
+      </c>
+      <c r="AE121" s="4">
+        <v>496.96600000000001</v>
+      </c>
+      <c r="AF121" s="4">
+        <v>513.50400000000002</v>
+      </c>
+      <c r="AG121" s="4">
+        <v>539.33399999999995</v>
+      </c>
+      <c r="AH121" s="4">
+        <v>558.56200000000001</v>
+      </c>
+      <c r="AI121" s="4">
+        <v>581.90800000000002</v>
+      </c>
+      <c r="AJ121" s="4">
+        <v>603.60900000000004</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>575.85599999999999</v>
+      </c>
+      <c r="AL121" s="4">
+        <v>615.74699999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
